--- a/data_binding_daftar_1.xlsx
+++ b/data_binding_daftar_1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asus\Katalon Studio\Task ACC Partner\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asus\git\update27maret\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0B2F718-1ECD-4BBA-B46A-8B1B25811B01}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72E5495E-2CD5-4EFA-8B16-572E504B5A0D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{49CC4E7B-77D7-4608-A79F-378619E1FE78}"/>
   </bookViews>
@@ -275,13 +275,13 @@
     <t>var_otp_6</t>
   </si>
   <si>
-    <t>CobaUlangKacab5</t>
-  </si>
-  <si>
-    <t>CobaUlangAdmin3</t>
-  </si>
-  <si>
     <t>CobaAlda123</t>
+  </si>
+  <si>
+    <t>Kacab13April3</t>
+  </si>
+  <si>
+    <t>Admin13April4</t>
   </si>
 </sst>
 </file>
@@ -653,17 +653,17 @@
   <dimension ref="A1:AC40"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.7109375" customWidth="1"/>
-    <col min="2" max="2" width="9.7109375" customWidth="1"/>
+    <col min="2" max="2" width="23.85546875" customWidth="1"/>
     <col min="3" max="3" width="6.5703125" customWidth="1"/>
     <col min="4" max="4" width="7.28515625" customWidth="1"/>
     <col min="5" max="5" width="10.7109375" customWidth="1"/>
-    <col min="6" max="6" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="29.5703125" customWidth="1"/>
     <col min="7" max="7" width="34.7109375" customWidth="1"/>
     <col min="8" max="8" width="15.5703125" customWidth="1"/>
     <col min="9" max="9" width="8.7109375" customWidth="1"/>
@@ -782,13 +782,13 @@
         <v>65</v>
       </c>
       <c r="F2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>67</v>
       </c>
       <c r="H2">
-        <v>81234567899</v>
+        <v>81234567812</v>
       </c>
       <c r="I2" t="s">
         <v>17</v>
@@ -865,13 +865,13 @@
         <v>66</v>
       </c>
       <c r="F3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>68</v>
       </c>
       <c r="H3">
-        <v>81234567898</v>
+        <v>81234567813</v>
       </c>
       <c r="I3" t="s">
         <v>29</v>
@@ -1229,7 +1229,7 @@
         <v>37</v>
       </c>
       <c r="F8" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>72</v>
@@ -1294,7 +1294,7 @@
         <v>37</v>
       </c>
       <c r="F9" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>73</v>
